--- a/Case Workflow/Data/Config/configaration file.xlsx
+++ b/Case Workflow/Data/Config/configaration file.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath_New\Case Workflow\Data\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CEDBE1-51CA-463E-87A4-4643325EEC1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201A1E14-DAE8-46CC-B96F-6D916BA66FDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Case Creation" sheetId="1" r:id="rId1"/>
-    <sheet name="Case" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="84">
   <si>
     <t>Key</t>
   </si>
@@ -265,6 +266,9 @@
     <t>Initiated_Password</t>
   </si>
   <si>
+    <t>Case Number_EAProcess.xlsx</t>
+  </si>
+  <si>
     <t>C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath\Case Workflow\Sample.docx</t>
   </si>
   <si>
@@ -274,16 +278,7 @@
     <t>C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath\Case Workflow\New Microsoft Excel Worksheet.xlsx</t>
   </si>
   <si>
-    <t>C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath_New\Case Number\Case Number.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath_New\Case Workflow\Sample.docx</t>
-  </si>
-  <si>
-    <t>C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath_New\Case Workflow\New Microsoft Excel Worksheet.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath_New\Case Workflow\DraftDocument.docx</t>
+    <t>C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath\CaseNumber\Case Number.xlsx</t>
   </si>
 </sst>
 </file>
@@ -619,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +669,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -770,7 +765,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -778,7 +773,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -880,7 +875,7 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,7 +929,7 @@
         <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -950,7 +945,7 @@
         <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1070,7 +1065,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1078,7 +1073,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1190,7 +1185,7 @@
         <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1223,6 +1218,176 @@
       </c>
       <c r="B42" t="s">
         <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCB9743-CCB8-4725-8FF9-2523D2E5B86D}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Case Workflow/Data/Config/configaration file.xlsx
+++ b/Case Workflow/Data/Config/configaration file.xlsx
@@ -5,17 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gulshiyaa\Downloads\Create_case_new-20201014T092344Z-001\Create_case_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath_New\Case Workflow\Data\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA1E813-4797-4ED1-B629-90820F6F387F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CEDBE1-51CA-463E-87A4-4643325EEC1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Case Creation" sheetId="1" r:id="rId1"/>
+    <sheet name="Case" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Key</t>
   </si>
@@ -203,9 +202,6 @@
     <t>Case_Number_FileSheetName</t>
   </si>
   <si>
-    <t>Case Number.xlsx</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -269,7 +265,25 @@
     <t>Initiated_Password</t>
   </si>
   <si>
-    <t>Case Number_EAProcess.xlsx</t>
+    <t>C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath\Case Workflow\Sample.docx</t>
+  </si>
+  <si>
+    <t>C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath\Case Workflow\sample.docx</t>
+  </si>
+  <si>
+    <t>C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath\Case Workflow\New Microsoft Excel Worksheet.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath_New\Case Number\Case Number.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath_New\Case Workflow\Sample.docx</t>
+  </si>
+  <si>
+    <t>C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath_New\Case Workflow\New Microsoft Excel Worksheet.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath_New\Case Workflow\DraftDocument.docx</t>
   </si>
 </sst>
 </file>
@@ -605,14 +619,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="77.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -660,7 +674,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -756,7 +770,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -764,7 +778,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -865,13 +879,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C002457-937D-4461-811E-6168F43363B8}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -919,7 +934,7 @@
         <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -927,15 +942,15 @@
         <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1023,31 +1038,31 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
         <v>64</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
         <v>66</v>
-      </c>
-      <c r="B22" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1055,7 +1070,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1063,7 +1078,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1140,23 +1155,23 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
         <v>30</v>
@@ -1164,7 +1179,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
         <v>49</v>
@@ -1172,212 +1187,42 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
         <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCB9743-CCB8-4725-8FF9-2523D2E5B86D}">
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Case Workflow/Data/Config/configaration file.xlsx
+++ b/Case Workflow/Data/Config/configaration file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath_New\Case Workflow\Data\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201A1E14-DAE8-46CC-B96F-6D916BA66FDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A364F14A-F421-4747-A107-0E9FEA2A8E89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="86">
   <si>
     <t>Key</t>
   </si>
@@ -279,6 +279,12 @@
   </si>
   <si>
     <t>C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath\CaseNumber\Case Number.xlsx</t>
+  </si>
+  <si>
+    <t>Case Creation\Case Number.xlsx</t>
+  </si>
+  <si>
+    <t>CaseNumber</t>
   </si>
 </sst>
 </file>
@@ -612,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,6 +868,14 @@
       </c>
       <c r="B30" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Case Workflow/Data/Config/configaration file.xlsx
+++ b/Case Workflow/Data/Config/configaration file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath_New\Case Workflow\Data\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A364F14A-F421-4747-A107-0E9FEA2A8E89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529D310A-5CE4-4F31-8307-DF398B354851}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="85">
   <si>
     <t>Key</t>
   </si>
@@ -278,13 +278,10 @@
     <t>C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath\Case Workflow\New Microsoft Excel Worksheet.xlsx</t>
   </si>
   <si>
-    <t>C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath\CaseNumber\Case Number.xlsx</t>
-  </si>
-  <si>
-    <t>Case Creation\Case Number.xlsx</t>
-  </si>
-  <si>
     <t>CaseNumber</t>
+  </si>
+  <si>
+    <t>C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath_New\Case Number\Case Number.xlsx</t>
   </si>
 </sst>
 </file>
@@ -620,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,7 +869,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
         <v>84</v>
@@ -888,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C002457-937D-4461-811E-6168F43363B8}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,7 +940,7 @@
         <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
